--- a/src/test/resources/check_sheet_t1.xlsx
+++ b/src/test/resources/check_sheet_t1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="748" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="748"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="522">
   <si>
     <t>共通設定</t>
   </si>
@@ -1362,9 +1362,6 @@
   </si>
   <si>
     <t>eth0:1</t>
-  </si>
-  <si>
-    <t>192.168.0.4</t>
   </si>
   <si>
     <t>[SWAP]</t>
@@ -1608,8 +1605,58 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>IPアドレス2</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip2</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.10.2</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>${ip2}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>IPアドレス3</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip3</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip4</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ip5</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>IPアドレス4</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>IPアドレス5</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>${ip}</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>${ip3}</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>${ip4}</t>
+  </si>
+  <si>
+    <t>${ip5}</t>
   </si>
 </sst>
 </file>
@@ -1800,7 +1847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1853,6 +1900,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2139,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,39 +2205,43 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="10.125" customWidth="1"/>
-    <col min="12" max="12" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="14" width="11.25" customWidth="1"/>
-    <col min="15" max="1023" width="8.75" customWidth="1"/>
-    <col min="1024" max="1025" width="11.625" customWidth="1"/>
+    <col min="9" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="9.25" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
+    <col min="19" max="1027" width="8.75" customWidth="1"/>
+    <col min="1028" max="1029" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2213,23 +2267,35 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2257,23 +2323,35 @@
       <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2296,16 +2374,22 @@
         <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>510</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2334,8 +2418,12 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2364,8 +2452,12 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2382,8 +2474,12 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2400,8 +2496,12 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2418,8 +2518,12 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2436,8 +2540,12 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2454,8 +2562,12 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -2472,8 +2584,12 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2490,8 +2606,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2508,8 +2628,12 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2526,8 +2650,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2544,8 +2672,12 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2562,8 +2694,12 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2580,8 +2716,12 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2598,8 +2738,12 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -2616,8 +2760,12 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -2634,8 +2782,12 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -2652,8 +2804,12 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -2670,16 +2826,20 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -2710,7 +2870,7 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>40</v>
@@ -2749,15 +2909,15 @@
         <v>50</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
@@ -2773,71 +2933,71 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>497</v>
-      </c>
       <c r="N4" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>484</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>485</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>488</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>489</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2848,7 +3008,7 @@
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -2860,17 +3020,17 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -2882,12 +3042,12 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
@@ -3028,33 +3188,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5748,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5949,7 +6109,7 @@
         <v>430</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>31</v>
+        <v>518</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>431</v>
@@ -5998,26 +6158,26 @@
         <v>440</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>443</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6036,10 +6196,10 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -6050,7 +6210,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6069,7 +6229,9 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>520</v>
+      </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -6079,7 +6241,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6098,7 +6260,9 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -6108,7 +6272,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6137,7 +6301,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6166,7 +6330,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6195,7 +6359,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6224,7 +6388,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6253,7 +6417,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6282,7 +6446,7 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6528,7 +6692,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6544,7 +6708,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -6555,7 +6719,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6571,7 +6735,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -6582,7 +6746,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6598,7 +6762,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -6609,7 +6773,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6625,7 +6789,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -6636,7 +6800,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6652,7 +6816,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -6663,7 +6827,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6679,7 +6843,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -6690,7 +6854,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6706,7 +6870,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -6717,7 +6881,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6733,7 +6897,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -6744,7 +6908,7 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6760,7 +6924,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -6771,7 +6935,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6787,7 +6951,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -6798,7 +6962,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6814,7 +6978,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -6825,7 +6989,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6841,7 +7005,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -6852,7 +7016,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6868,7 +7032,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -6879,7 +7043,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
@@ -6895,7 +7059,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -6906,7 +7070,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -6922,7 +7086,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -6933,7 +7097,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -6949,7 +7113,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -6960,7 +7124,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -6976,7 +7140,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
@@ -6987,7 +7151,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7003,7 +7167,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -7014,7 +7178,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7030,7 +7194,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -7041,7 +7205,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7057,7 +7221,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
@@ -7068,7 +7232,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7084,7 +7248,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -7095,7 +7259,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7111,7 +7275,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="M44" s="10"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -7122,7 +7286,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7138,7 +7302,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
@@ -7149,7 +7313,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7165,7 +7329,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
@@ -7176,7 +7340,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7192,7 +7356,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -7203,7 +7367,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7219,7 +7383,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
@@ -7230,7 +7394,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7246,7 +7410,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -7257,7 +7421,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7273,7 +7437,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -7284,7 +7448,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7300,7 +7464,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -7311,7 +7475,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7327,7 +7491,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="10"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -7338,7 +7502,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7354,7 +7518,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
+      <c r="M53" s="10"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -7365,7 +7529,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7381,7 +7545,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -7392,7 +7556,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7408,7 +7572,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="M55" s="10"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -7419,7 +7583,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7435,7 +7599,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="M56" s="10"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -7446,7 +7610,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7462,7 +7626,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="M57" s="10"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -7473,7 +7637,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7489,7 +7653,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -7500,7 +7664,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7516,7 +7680,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -7527,7 +7691,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7543,7 +7707,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="M60" s="10"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -7554,7 +7718,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7570,7 +7734,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="M61" s="10"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -7581,7 +7745,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7597,7 +7761,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -7608,7 +7772,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7624,7 +7788,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="M63" s="10"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -7635,7 +7799,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7651,7 +7815,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -7662,7 +7826,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7678,7 +7842,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
+      <c r="M65" s="10"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -7689,7 +7853,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7705,7 +7869,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="M66" s="10"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -7716,7 +7880,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7732,7 +7896,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -7743,7 +7907,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
@@ -7759,7 +7923,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
@@ -7770,7 +7934,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -7786,7 +7950,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
@@ -7797,7 +7961,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -7813,7 +7977,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
+      <c r="M70" s="10"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
@@ -7824,7 +7988,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -7840,7 +8004,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="M71" s="10"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
@@ -7851,7 +8015,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -7867,7 +8031,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="M72" s="10"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
@@ -7878,7 +8042,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -7894,7 +8058,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
+      <c r="M73" s="10"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
@@ -7905,7 +8069,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -7921,7 +8085,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
+      <c r="M74" s="10"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
@@ -7932,7 +8096,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -7948,7 +8112,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
+      <c r="M75" s="10"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
@@ -7959,7 +8123,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -7975,7 +8139,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="M76" s="10"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
@@ -7986,7 +8150,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -8002,7 +8166,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="M77" s="10"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
@@ -8013,7 +8177,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -8029,7 +8193,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+      <c r="M78" s="10"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
@@ -8040,7 +8204,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -8056,7 +8220,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
+      <c r="M79" s="10"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
@@ -8067,7 +8231,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -8083,7 +8247,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
+      <c r="M80" s="10"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
@@ -8094,7 +8258,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -8110,7 +8274,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
+      <c r="M81" s="10"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
@@ -8121,7 +8285,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -8137,7 +8301,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
+      <c r="M82" s="10"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
@@ -8148,7 +8312,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -8164,7 +8328,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
+      <c r="M83" s="10"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
@@ -8175,7 +8339,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -8191,7 +8355,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
+      <c r="M84" s="10"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
@@ -8202,7 +8366,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -8218,7 +8382,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
+      <c r="M85" s="10"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
@@ -8229,7 +8393,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -8245,7 +8409,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
+      <c r="M86" s="10"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
@@ -8256,7 +8420,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -8272,7 +8436,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
+      <c r="M87" s="10"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
@@ -8283,7 +8447,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -8299,7 +8463,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
+      <c r="M88" s="10"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
@@ -8310,7 +8474,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -8326,7 +8490,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
+      <c r="M89" s="10"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -8337,7 +8501,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -8353,7 +8517,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
+      <c r="M90" s="10"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
@@ -8364,7 +8528,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -8380,7 +8544,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+      <c r="M91" s="10"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
@@ -8391,7 +8555,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -8407,7 +8571,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
+      <c r="M92" s="10"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
@@ -8418,7 +8582,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -8434,7 +8598,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
+      <c r="M93" s="10"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -8445,7 +8609,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -8461,7 +8625,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+      <c r="M94" s="10"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
@@ -8472,7 +8636,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -8488,7 +8652,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
+      <c r="M95" s="10"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
@@ -8499,7 +8663,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -8515,7 +8679,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
+      <c r="M96" s="10"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
@@ -8526,7 +8690,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -8542,7 +8706,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
+      <c r="M97" s="10"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
@@ -8553,7 +8717,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -8569,7 +8733,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
+      <c r="M98" s="10"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
@@ -8580,7 +8744,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -8596,7 +8760,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
+      <c r="M99" s="10"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -8607,7 +8771,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <f t="shared" si="2"/>
         <v>98</v>
@@ -8623,7 +8787,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
+      <c r="M100" s="10"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -8634,7 +8798,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -8650,7 +8814,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
+      <c r="M101" s="10"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -8661,7 +8825,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <f t="shared" si="2"/>
         <v>100</v>
@@ -8677,7 +8841,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
+      <c r="M102" s="10"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
@@ -8880,7 +9044,7 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>428</v>
@@ -8901,13 +9065,13 @@
         <v>2000</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>432</v>
@@ -8916,14 +9080,14 @@
         <v>433</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R3" s="10"/>
       <c r="S3" s="10" t="s">
         <v>436</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>438</v>
@@ -8950,17 +9114,17 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="R4" s="10"/>
       <c r="S4" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
@@ -11720,22 +11884,22 @@
         <v>312</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -11749,13 +11913,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
@@ -11767,7 +11931,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K3" s="10">
         <v>50</v>
@@ -11776,10 +11940,10 @@
         <v>435</v>
       </c>
       <c r="M3" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>472</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -11799,10 +11963,10 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
